--- a/biology/Microbiologie/Spirochaeta/Spirochaeta.xlsx
+++ b/biology/Microbiologie/Spirochaeta/Spirochaeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spirochaeta est un genre de bactéries hélicoïdales à Gram négatif de la famille des Spirochaetaceae. Son nom, tiré du grec speira (σπεῖρα,-ας : spirale) et chaitê (χαίτη,-ης : cheveux, crinière), fait référence à la forme de fine spirale qu'ont ces bactéries.
 C'est le genre type de l'embranchement des Spirochaetota, de l'ordre des Spirochaetales et de la famille des Spirochaetaceae. Son espèce type est Spirochaeta plicatilis.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (2 décembre 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (2 décembre 2022) :
 Spirochaeta africana Zhilina et al. 1996
 Spirochaeta asiatica Zhilina et al. 1996
 Spirochaeta aurantia (ex Vinzent 1926) Canale-Parola 1980
